--- a/microservice-production/microservice-wlg-equipment/src/main/resources/excelTemplate/sectionOrderCount.xlsx
+++ b/microservice-production/microservice-wlg-equipment/src/main/resources/excelTemplate/sectionOrderCount.xlsx
@@ -85,21 +85,19 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="13"/>
       <color indexed="8"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -429,21 +427,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -463,7 +466,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,6 +507,7 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
